--- a/docs/data skeleton.xlsx
+++ b/docs/data skeleton.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DevInf" sheetId="12" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="122">
   <si>
     <t>CLIENT NAME</t>
   </si>
@@ -360,6 +360,39 @@
   </si>
   <si>
     <t>CANDIDATE KEY</t>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>EP = European Plan</t>
+  </si>
+  <si>
+    <t>AP = American Plan</t>
+  </si>
+  <si>
+    <t>CHANNEL</t>
+  </si>
+  <si>
+    <t>MMT</t>
+  </si>
+  <si>
+    <t>GOEBEBO</t>
+  </si>
+  <si>
+    <t>BOOKING.COM</t>
+  </si>
+  <si>
+    <t>XPEDIA</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>default = CP Common Plan</t>
+  </si>
+  <si>
+    <t>default = Walk In Direct</t>
   </si>
 </sst>
 </file>
@@ -479,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -500,9 +533,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -520,6 +550,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,7 +849,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>105</v>
       </c>
       <c r="B3" t="s">
@@ -821,7 +857,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>107</v>
       </c>
       <c r="B4" t="s">
@@ -829,7 +865,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>109</v>
       </c>
       <c r="B5" t="s">
@@ -845,7 +881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -870,13 +906,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
@@ -919,7 +955,7 @@
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -945,13 +981,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -961,7 +997,7 @@
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>104</v>
       </c>
     </row>
@@ -989,16 +1025,16 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1013,7 +1049,7 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1036,13 +1072,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1052,7 +1088,7 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1086,15 +1122,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1135,7 +1171,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>78</v>
       </c>
       <c r="L4" s="1" t="s">
@@ -1160,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,27 +1211,29 @@
     <col min="5" max="5" width="11.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="12" style="3" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="3"/>
+    <col min="8" max="8" width="29" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="3" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="I1" s="6" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K1" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="L1" s="21"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1216,81 +1254,118 @@
       <c r="G2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="21"/>
+      <c r="H5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="L5" s="3" t="s">
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="N5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>87</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="H6" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N7" s="3" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="N8" s="3" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H8" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H9" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H10" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="F5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1318,44 +1393,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1372,13 +1447,13 @@
       <c r="E7" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>0.18</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="18" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1392,10 +1467,10 @@
       <c r="C8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>0.09</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1407,10 +1482,10 @@
       <c r="C9" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>0.1</v>
       </c>
-      <c r="H9" s="9"/>
+      <c r="H9" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1436,17 +1511,17 @@
     <col min="8" max="8" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>73</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -1468,13 +1543,13 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1540,7 +1615,7 @@
       <c r="G11" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>74</v>
       </c>
     </row>
